--- a/docs/Hotspotpaper_tables.xlsx
+++ b/docs/Hotspotpaper_tables.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dp/Documents/UCSC/Dissertation/Hot Spots Review Paper/Hotspot R project/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danpalance/Documents/UCSC/Dissertation/Hot Spots Review Paper/hotspotsreview/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8AC6F3-89D5-0241-90C2-3753E27BEEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B850C9C8-9427-1347-AF15-7ABEDC8064B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{70CE4867-6F73-144B-9664-F5046CCB3C55}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="4" xr2:uid="{70CE4867-6F73-144B-9664-F5046CCB3C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods" sheetId="1" r:id="rId1"/>
     <sheet name="Taxa" sheetId="2" r:id="rId2"/>
     <sheet name="QuantMethods" sheetId="3" r:id="rId3"/>
     <sheet name="Drivers" sheetId="4" r:id="rId4"/>
+    <sheet name="new drivers" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="178">
   <si>
     <t>Method</t>
   </si>
@@ -377,13 +378,208 @@
   </si>
   <si>
     <t>ensemble</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Covariate</t>
+  </si>
+  <si>
+    <t>Dynamic Physical</t>
+  </si>
+  <si>
+    <t>bottom temperature, SST, temperature</t>
+  </si>
+  <si>
+    <t>currents, current speed, current velocity, downwelling, NPTZ, eddies, EKE, Ekman transport, gyres, hydrographic forcing, surface currents, tidal current, tide, upwelling, water flow, rivers</t>
+  </si>
+  <si>
+    <t>Atmospheric</t>
+  </si>
+  <si>
+    <t>climate, hydrology, La Niña, cloud coverage, precipitation, pressure, El Niño, ENSO, PDO, storms, shear stress, wind, wind speed, wind stress</t>
+  </si>
+  <si>
+    <t>Distance to features</t>
+  </si>
+  <si>
+    <t>distance from edge of slope, distance from estuary mouth, distance from shelf break, distance from shore,distance to coast, distance to continental slope, distance to eddies, distance to estuary mouth, distance to fronts, distance to iceberg, distance to ocean, distance to plume, distance to shelf break, proximity to estuary, proximity to rivers, proximity to tidal channels</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>ice, ice coverage, icebergs, glaciers</t>
+  </si>
+  <si>
+    <t>Sea State</t>
+  </si>
+  <si>
+    <t>dynamic height, sea level anomaly, SSH, SSHA, swell, wave action, wave exposure, wave velocity, waves, tsunamis, fetch</t>
+  </si>
+  <si>
+    <t>Water column struture</t>
+  </si>
+  <si>
+    <t>Gulfstream North Wall, fronts, mixed layer thickness, mixing, mixing line, isothermality, mixed layer depth, pycnocline depth, stratification, thermal stratification, density, turbidity</t>
+  </si>
+  <si>
+    <t>Misc Dyphys</t>
+  </si>
+  <si>
+    <t>day length, light, moon illuminance, gravitational sinking, island mass effect, protrusion of surf zone, tectonic events</t>
+  </si>
+  <si>
+    <t>Bathy &amp; Topo</t>
+  </si>
+  <si>
+    <t>General bathy/topo</t>
+  </si>
+  <si>
+    <t>bathymetry, depth, bottom depth, topography, land area, continental width, islands</t>
+  </si>
+  <si>
+    <t>Seabed characteristics</t>
+  </si>
+  <si>
+    <t>ridges, roughness, rugosity, seabed composition, slope, substrate, sediment grain size, aspect, bottom type, wood debris</t>
+  </si>
+  <si>
+    <t>Bathy structures</t>
+  </si>
+  <si>
+    <t>banks, canyons, fjords, guyots, seamounts, shelf break, shelfs</t>
+  </si>
+  <si>
+    <t>Biogeochem</t>
+  </si>
+  <si>
+    <t>nitrate, nitrogen, nutrients, silica, silicate, silicon, phosphate, phosphorous, pCO2, nitrogen fixation</t>
+  </si>
+  <si>
+    <t>Carbon cycle</t>
+  </si>
+  <si>
+    <t>carbon cycling, particulate organic carbon, sediment organic content, DIC, PIC, POC</t>
+  </si>
+  <si>
+    <t>Oxygen &amp; Acidification</t>
+  </si>
+  <si>
+    <t>dissolved oxygen, DO, alkalinity, aragonite saturation, conductivity, dissolution, pH, salinity, oxygen, oxygen saturation</t>
+  </si>
+  <si>
+    <t>Species Attributes</t>
+  </si>
+  <si>
+    <t>Life history</t>
+  </si>
+  <si>
+    <t>dispersal mechanisms, life history, life stage, reproduction rate, wean mass, prey recruitment</t>
+  </si>
+  <si>
+    <t>Physio &amp; morph</t>
+  </si>
+  <si>
+    <t>enzymatic responses, phytoplankton fluorescence, animal sensitivity, body length, body shape, diet, prey size, heat wave stress</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>behavior, migratory behavior, DVM, social cues</t>
+  </si>
+  <si>
+    <t>Demography</t>
+  </si>
+  <si>
+    <t>population size, range size, prey mortality, social group size</t>
+  </si>
+  <si>
+    <t>Misc Spp</t>
+  </si>
+  <si>
+    <t>taxonomic group</t>
+  </si>
+  <si>
+    <t>Ecological</t>
+  </si>
+  <si>
+    <t>Habitat components</t>
+  </si>
+  <si>
+    <t>habitat, habitat complexity, habitat quality, habitat type, adult cover, canopy height, reef area, reef structure, rhizome layer depth, prey habitat, habitat structure</t>
+  </si>
+  <si>
+    <t>Community composition</t>
+  </si>
+  <si>
+    <t>biodiversity, community composition, taxa, species composition, ecological niche, relative nekton density-distribution</t>
+  </si>
+  <si>
+    <t>Primary production</t>
+  </si>
+  <si>
+    <t>chl-a, chlorophyll, phytoplankton, phytoplankton biomass, primary productivity, productivity, proximity to phytoplankton</t>
+  </si>
+  <si>
+    <t>Misc interactions</t>
+  </si>
+  <si>
+    <t>intraspecific interactions, disease</t>
+  </si>
+  <si>
+    <t>Predation</t>
+  </si>
+  <si>
+    <t>predator abundance, predator density, predators, prey abundance, prey biomass, prey density, prey distribution, prey type, trophic category, distance to feeding areas</t>
+  </si>
+  <si>
+    <t>Anthropogenic</t>
+  </si>
+  <si>
+    <t>Fishing </t>
+  </si>
+  <si>
+    <t>aquaculture, fishing, fishing gear, fishing gear type, fishing pressure, gear material, live trade, trawl depth</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>agriculture, desalinization, industry, reclamation</t>
+  </si>
+  <si>
+    <t>Habitat alteration</t>
+  </si>
+  <si>
+    <t>biofouling, deforestation, dredging, climate change, climate velocity</t>
+  </si>
+  <si>
+    <t>vessel track, vessel type, ship breaking, shipping, shipwrecks, ballast water, proximity to ports, visitation rate, port proximity, recreational boating</t>
+  </si>
+  <si>
+    <t>Pollutants</t>
+  </si>
+  <si>
+    <t>bulk discharge, dumping, eutrophication, heavy metal effluent, heavy metal exposure, sewage, sewage discharge, industrial effluent, litter, metal pollution, noise, oil pollution, oil release rates, PCB exposure, plastic density, pollution</t>
+  </si>
+  <si>
+    <t>Misc human</t>
+  </si>
+  <si>
+    <t>city, consumer demand, human activity, human impact, human population, proximity to urban areas, threat type, tourism</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,6 +627,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -452,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -475,6 +684,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,9 +729,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -533,7 +769,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -639,7 +875,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -781,7 +1017,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1084,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAE3456-9BA0-5F40-9736-0F9D37B1772D}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -1839,4 +2075,365 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FF9276-925F-FF4B-ADC5-5F3ABE58A01D}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="15" customWidth="1"/>
+    <col min="3" max="3" width="82.5" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>